--- a/src/test/resources/resultadoFicheros/imputacionJunio_01_06_2021__30_06_2021.xlsx
+++ b/src/test/resources/resultadoFicheros/imputacionJunio_01_06_2021__30_06_2021.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="42">
   <si>
     <t>Imputaciones</t>
   </si>
@@ -118,9 +118,6 @@
     <t>Gefenew modificación TITULO Requerimiento JE</t>
   </si>
   <si>
-    <t>Taraea con Imputacion de CERO horas.</t>
-  </si>
-  <si>
     <t>Gefenew campo FIN PLAZO alegaciones- requerimiento</t>
   </si>
   <si>
@@ -136,10 +133,19 @@
     <t>SIE: Revisar longitud de codigo procedimiento en los envios de Certificados de Interoperatividad</t>
   </si>
   <si>
+    <t>NO SE PUEDE ABRIR CARPETA DE CANDITATURA EN EL HISTORIAL DE SOLICITUDES. E-CURRICULUM</t>
+  </si>
+  <si>
+    <t>SIE: Incorporar código 430 en SISPE</t>
+  </si>
+  <si>
+    <t>Gescolas. Nuevo perfil de acceso</t>
+  </si>
+  <si>
+    <t>Gefenew creación CAMPOS CANCELACIÓN AVAL</t>
+  </si>
+  <si>
     <t>Agrupacion</t>
-  </si>
-  <si>
-    <t>Menos de 8 horas imputadas.</t>
   </si>
   <si>
     <t>Resumen</t>
@@ -345,7 +351,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -598,6 +604,150 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -638,17 +788,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -752,7 +911,7 @@
         <v>4</v>
       </c>
       <c r="D3" t="n" s="10">
-        <v>47.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="4">
@@ -767,8 +926,8 @@
       <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="O6" s="98" t="s">
-        <v>34</v>
+      <c r="O6" s="146" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="7">
@@ -808,13 +967,13 @@
       <c r="L7" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="99" t="s">
+      <c r="O7" s="147" t="s">
         <v>18</v>
       </c>
-      <c r="P7" s="100" t="s">
+      <c r="P7" s="148" t="s">
         <v>17</v>
       </c>
-      <c r="Q7" s="101" t="s">
+      <c r="Q7" s="149" t="s">
         <v>19</v>
       </c>
     </row>
@@ -847,7 +1006,7 @@
         <v>24</v>
       </c>
       <c r="J8" s="30" t="n">
-        <v>2.0</v>
+        <v>2.5</v>
       </c>
       <c r="K8" s="31" t="n">
         <v>44348.0</v>
@@ -855,14 +1014,14 @@
       <c r="L8" t="s">
         <v>25</v>
       </c>
-      <c r="O8" s="102" t="n">
+      <c r="O8" s="150" t="n">
         <v>44348.0</v>
       </c>
-      <c r="P8" t="n" s="103">
-        <v>7.0</v>
+      <c r="P8" t="n" s="151">
+        <v>8.0</v>
       </c>
       <c r="Q8" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9">
@@ -902,10 +1061,10 @@
       <c r="L9" t="s">
         <v>25</v>
       </c>
-      <c r="O9" s="104" t="n">
+      <c r="O9" s="152" t="n">
         <v>44349.0</v>
       </c>
-      <c r="P9" t="n" s="105">
+      <c r="P9" t="n" s="153">
         <v>8.0</v>
       </c>
       <c r="Q9" t="s">
@@ -941,18 +1100,18 @@
         <v>24</v>
       </c>
       <c r="J10" s="42" t="n">
-        <v>0.0</v>
+        <v>0.5</v>
       </c>
       <c r="K10" s="43" t="n">
         <v>44348.0</v>
       </c>
       <c r="L10" t="s">
-        <v>28</v>
-      </c>
-      <c r="O10" s="106" t="n">
+        <v>25</v>
+      </c>
+      <c r="O10" s="154" t="n">
         <v>44350.0</v>
       </c>
-      <c r="P10" t="n" s="107">
+      <c r="P10" t="n" s="155">
         <v>8.0</v>
       </c>
       <c r="Q10" t="s">
@@ -970,7 +1129,7 @@
         <v>839360.0</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11" s="45" t="n">
         <v>950172.0</v>
@@ -996,10 +1155,10 @@
       <c r="L11" t="s">
         <v>25</v>
       </c>
-      <c r="O11" s="108" t="n">
+      <c r="O11" s="156" t="n">
         <v>44351.0</v>
       </c>
-      <c r="P11" t="n" s="109">
+      <c r="P11" t="n" s="157">
         <v>8.0</v>
       </c>
       <c r="Q11" t="s">
@@ -1017,7 +1176,7 @@
         <v>842489.0</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" s="51" t="n">
         <v>950425.0</v>
@@ -1043,10 +1202,10 @@
       <c r="L12" t="s">
         <v>25</v>
       </c>
-      <c r="O12" s="110" t="n">
+      <c r="O12" s="158" t="n">
         <v>44354.0</v>
       </c>
-      <c r="P12" t="n" s="111">
+      <c r="P12" t="n" s="159">
         <v>8.0</v>
       </c>
       <c r="Q12" t="s">
@@ -1064,13 +1223,13 @@
         <v>823415.0</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" s="57" t="n">
         <v>953882.0</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G13" s="58" t="n">
         <v>44349.646527777775</v>
@@ -1090,10 +1249,10 @@
       <c r="L13" t="s">
         <v>25</v>
       </c>
-      <c r="O13" s="112" t="n">
+      <c r="O13" s="160" t="n">
         <v>44355.0</v>
       </c>
-      <c r="P13" t="n" s="113">
+      <c r="P13" t="n" s="161">
         <v>8.0</v>
       </c>
       <c r="Q13" t="s">
@@ -1111,7 +1270,7 @@
         <v>843943.0</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E14" s="63" t="n">
         <v>952070.0</v>
@@ -1137,6 +1296,15 @@
       <c r="L14" t="s">
         <v>25</v>
       </c>
+      <c r="O14" s="162" t="n">
+        <v>44357.0</v>
+      </c>
+      <c r="P14" t="n" s="163">
+        <v>8.0</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -1149,13 +1317,13 @@
         <v>823415.0</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15" s="69" t="n">
         <v>953881.0</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G15" s="70" t="n">
         <v>44350.645833333336</v>
@@ -1175,8 +1343,14 @@
       <c r="L15" t="s">
         <v>25</v>
       </c>
-      <c r="O15" s="114" t="s">
-        <v>36</v>
+      <c r="O15" s="164" t="n">
+        <v>44358.0</v>
+      </c>
+      <c r="P15" t="n" s="165">
+        <v>8.0</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16">
@@ -1190,7 +1364,7 @@
         <v>843943.0</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" s="75" t="n">
         <v>952072.0</v>
@@ -1216,14 +1390,14 @@
       <c r="L16" t="s">
         <v>25</v>
       </c>
-      <c r="O16" s="115" t="s">
-        <v>37</v>
-      </c>
-      <c r="P16" s="128" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q16" s="130" t="s">
-        <v>39</v>
+      <c r="O16" s="166" t="n">
+        <v>44361.0</v>
+      </c>
+      <c r="P16" t="n" s="167">
+        <v>8.0</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="17">
@@ -1237,13 +1411,13 @@
         <v>823415.0</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E17" s="81" t="n">
         <v>953879.0</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G17" s="82" t="n">
         <v>44351.645833333336</v>
@@ -1263,15 +1437,6 @@
       <c r="L17" t="s">
         <v>25</v>
       </c>
-      <c r="O17" s="116" t="n">
-        <v>44362.0</v>
-      </c>
-      <c r="P17" s="129" t="n">
-        <v>44356.0</v>
-      </c>
-      <c r="Q17" s="131" t="n">
-        <v>44375.0</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -1284,13 +1449,13 @@
         <v>823415.0</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E18" s="87" t="n">
         <v>953878.0</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G18" s="88" t="n">
         <v>44354.64513888889</v>
@@ -1310,11 +1475,8 @@
       <c r="L18" t="s">
         <v>25</v>
       </c>
-      <c r="O18" s="117" t="n">
-        <v>44361.0</v>
-      </c>
-      <c r="Q18" s="132" t="n">
-        <v>44376.0</v>
+      <c r="O18" s="168" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="19">
@@ -1328,13 +1490,13 @@
         <v>823415.0</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E19" s="93" t="n">
         <v>953877.0</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G19" s="94" t="n">
         <v>44355.64565972222</v>
@@ -1354,56 +1516,359 @@
       <c r="L19" t="s">
         <v>25</v>
       </c>
-      <c r="O19" s="118" t="n">
+      <c r="O19" s="169" t="s">
+        <v>39</v>
+      </c>
+      <c r="P19" s="179" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q19" s="181" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="98" t="n">
+        <v>846931.0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="99" t="n">
+        <v>954205.0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="100" t="n">
+        <v>44357.466203703705</v>
+      </c>
+      <c r="H20" s="101" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20" s="102" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K20" s="103" t="n">
+        <v>44357.0</v>
+      </c>
+      <c r="L20" t="s">
+        <v>25</v>
+      </c>
+      <c r="O20" s="170" t="n">
+        <v>44362.0</v>
+      </c>
+      <c r="P20" s="180" t="n">
+        <v>44356.0</v>
+      </c>
+      <c r="Q20" s="182" t="n">
+        <v>44375.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="104" t="n">
+        <v>823415.0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="105" t="n">
+        <v>954251.0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="106" t="n">
+        <v>44357.48898148148</v>
+      </c>
+      <c r="H21" s="107" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" s="108" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K21" s="109" t="n">
+        <v>44357.0</v>
+      </c>
+      <c r="L21" t="s">
+        <v>25</v>
+      </c>
+      <c r="O21" s="171" t="n">
+        <v>44363.0</v>
+      </c>
+      <c r="Q21" s="183" t="n">
+        <v>44376.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="110" t="n">
+        <v>718284.0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="111" t="n">
+        <v>955810.0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="112" t="n">
+        <v>44357.50763888889</v>
+      </c>
+      <c r="H22" s="113" t="n">
+        <v>240.0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" s="114" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="K22" s="115" t="n">
+        <v>44357.0</v>
+      </c>
+      <c r="L22" t="s">
+        <v>25</v>
+      </c>
+      <c r="O22" s="172" t="n">
+        <v>44364.0</v>
+      </c>
+      <c r="Q22" s="184" t="n">
+        <v>44377.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="116" t="n">
+        <v>847147.0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="117" t="n">
+        <v>954446.0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="118" t="n">
+        <v>44357.57377314815</v>
+      </c>
+      <c r="H23" s="119" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="I23" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" s="120" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K23" s="121" t="n">
+        <v>44357.0</v>
+      </c>
+      <c r="L23" t="s">
+        <v>25</v>
+      </c>
+      <c r="O23" s="173" t="n">
+        <v>44365.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="122" t="n">
+        <v>718284.0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="123" t="n">
+        <v>955811.0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="124" t="n">
+        <v>44358.50763888889</v>
+      </c>
+      <c r="H24" s="125" t="n">
+        <v>480.0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" s="126" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="K24" s="127" t="n">
         <v>44358.0</v>
       </c>
-      <c r="Q19" s="133" t="n">
-        <v>44377.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="O20" s="119" t="n">
-        <v>44357.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="O21" s="120" t="n">
+      <c r="L24" t="s">
+        <v>25</v>
+      </c>
+      <c r="O24" s="174" t="n">
+        <v>44368.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="128" t="n">
+        <v>718284.0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="129" t="n">
+        <v>955808.0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" s="130" t="n">
+        <v>44361.50766203704</v>
+      </c>
+      <c r="H25" s="131" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" s="132" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K25" s="133" t="n">
+        <v>44361.0</v>
+      </c>
+      <c r="L25" t="s">
+        <v>25</v>
+      </c>
+      <c r="O25" s="175" t="n">
+        <v>44369.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="134" t="n">
+        <v>823415.0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="135" t="n">
+        <v>956025.0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" s="136" t="n">
+        <v>44361.60753472222</v>
+      </c>
+      <c r="H26" s="137" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="I26" t="s">
+        <v>24</v>
+      </c>
+      <c r="J26" s="138" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K26" s="139" t="n">
+        <v>44361.0</v>
+      </c>
+      <c r="L26" t="s">
+        <v>25</v>
+      </c>
+      <c r="O26" s="176" t="n">
+        <v>44370.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="140" t="n">
+        <v>831234.0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="141" t="n">
+        <v>956073.0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="142" t="n">
+        <v>44361.629224537035</v>
+      </c>
+      <c r="H27" s="143" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="I27" t="s">
+        <v>24</v>
+      </c>
+      <c r="J27" s="144" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K27" s="145" t="n">
+        <v>44361.0</v>
+      </c>
+      <c r="L27" t="s">
+        <v>25</v>
+      </c>
+      <c r="O27" s="177" t="n">
+        <v>44371.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="O28" s="178" t="n">
         <v>44372.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="O22" s="121" t="n">
-        <v>44371.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="O23" s="122" t="n">
-        <v>44370.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="O24" s="123" t="n">
-        <v>44369.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="O25" s="124" t="n">
-        <v>44368.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="O26" s="125" t="n">
-        <v>44365.0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="O27" s="126" t="n">
-        <v>44364.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="O28" s="127" t="n">
-        <v>44363.0</v>
       </c>
     </row>
   </sheetData>
